--- a/biology/Médecine/Centrale_d'Achat_des_Médicaments_essentiels/Centrale_d'Achat_des_Médicaments_essentiels.xlsx
+++ b/biology/Médecine/Centrale_d'Achat_des_Médicaments_essentiels/Centrale_d'Achat_des_Médicaments_essentiels.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centrale_d%27Achat_des_M%C3%A9dicaments_essentiels</t>
+          <t>Centrale_d'Achat_des_Médicaments_essentiels</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Centrale d'Achat des Médicaments essentiels (CAME) est une association de droit béninois dotée d'une autonomie financière pour l’approvisionnement en produits sous la tutelle du ministère du ministère de santé
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centrale_d%27Achat_des_M%C3%A9dicaments_essentiels</t>
+          <t>Centrale_d'Achat_des_Médicaments_essentiels</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jeudi 3 septembre 2020 il est remplacé par une nouvelle socité dénommée (SoBAPS SA) lors l’Assemblée générale extraordinaire au Chant d’oiseau à Cotonou.
-Le 28 juin 2018, par décret No 253 du 20 juin 2020[1], Le Gouvernement retire de l’agrément d’exploitation accordé à la CAME au profit d'une nouvelle entité  dénommée d'une Société Béninoise pour l’Approvisionnement en Produits de Santé en abrégé (SoBAPS SA)[2],[3] où le Bénin est l’actionnaire unique dirigée par une Direction Générale et un Conseil d’Administration de sept (7) membres.
+Le 28 juin 2018, par décret No 253 du 20 juin 2020, Le Gouvernement retire de l’agrément d’exploitation accordé à la CAME au profit d'une nouvelle entité  dénommée d'une Société Béninoise pour l’Approvisionnement en Produits de Santé en abrégé (SoBAPS SA), où le Bénin est l’actionnaire unique dirigée par une Direction Générale et un Conseil d’Administration de sept (7) membres.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centrale_d%27Achat_des_M%C3%A9dicaments_essentiels</t>
+          <t>Centrale_d'Achat_des_Médicaments_essentiels</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Organisation et fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans sa mission de couverture nationale du Bénin en matière de médicament, des agences régionales sont créées. il s'agit de  
 l’agence régionale CAME Cotonou  crée 2014 pour desservir les formations sanitaires et établissements pharmaceutiques de la partie méridionale du Bénin regroupant les Départements de : Atlantique, Littoral, Ouémé, Plateau, Mono, Couffo et Zou.
